--- a/examples/Canada OGD/post secondary students/counters_summary.xlsx
+++ b/examples/Canada OGD/post secondary students/counters_summary.xlsx
@@ -345,7 +345,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>

--- a/examples/Canada OGD/post secondary students/counters_summary.xlsx
+++ b/examples/Canada OGD/post secondary students/counters_summary.xlsx
@@ -360,77 +360,102 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>COMPLETENESSMANDATORY</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>COMPLETENESSMANDATORY SCORE</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>COMPLETENESSOPTIONAL</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>COMPLETENESSOPTIONAL SCORE</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>PRECISION</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>PRECISION SCORE</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>BUSINESSRULECOMPLIANCE</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>BUSINESSRULECOMPLIANCE SCORE</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>METADATACOMPLIANCE</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>METADATACOMPLIANCE SCORE</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
           <t>UNIQUENESS</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>UNIQUENESSCOMPOSITE</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>UNIQUENESS SCORE</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>NONREDUNDANCY</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>NONREDUNDANCY SCORE</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>SEMANTICCONSISTENCY</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>SEMANTICCONSISTENCY SCORE</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>VALUECONSISTENCY</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>VALUECONSISTENCY SCORE</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
         <is>
           <t>FORMATCONSISTENCY</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>FORMATCONSISTENCYPREFIX</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>VALUECONSISTENCY</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCESIZE</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCETYPE</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCERANGEMIN</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCERANGEMAX</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCEENUM</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>RULECOMPLIANCE</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>MANDATORYCOMPLETENESS</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>OPTIONALCOMPLETENESS</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>AVAILABILITY</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>CONFORMANCE</t>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>FORMATCONSISTENCY SCORE</t>
         </is>
       </c>
     </row>
@@ -485,6 +510,21 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -537,6 +577,21 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -589,6 +644,21 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -641,6 +711,21 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -693,6 +778,21 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -745,6 +845,21 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -795,6 +910,21 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>0</v>
       </c>
     </row>
